--- a/misc/curve_info_to_QC.xlsx
+++ b/misc/curve_info_to_QC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{690C8984-9F55-43B2-864D-F9AFAE8028E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E84CF6-BC84-486F-A512-79FE7AF3268A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curve_info_to_QC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>WellNo</t>
   </si>
@@ -730,49 +730,55 @@
     <t>233-fe8ab5538224_TGS</t>
   </si>
   <si>
-    <t>DTCO</t>
-  </si>
-  <si>
-    <t>DTSM</t>
-  </si>
-  <si>
-    <t>RHOB</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>GR</t>
-  </si>
-  <si>
-    <t>Resistivity</t>
-  </si>
-  <si>
-    <t>Caliper</t>
-  </si>
-  <si>
-    <t>PEFZ</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Curves should be used for below mnemonics</t>
   </si>
   <si>
-    <t>CALD</t>
-  </si>
-  <si>
-    <t>NPHI</t>
-  </si>
-  <si>
     <t>missing top part data, SPR mistaken as caliper, NPHI seems follow DTSM trend</t>
+  </si>
+  <si>
+    <t>Curves to remove</t>
+  </si>
+  <si>
+    <t>DTST, DT</t>
+  </si>
+  <si>
+    <t>DTCO, HLLS, RXOZ</t>
+  </si>
+  <si>
+    <t>AT10, AT30</t>
+  </si>
+  <si>
+    <t>Top Depth</t>
+  </si>
+  <si>
+    <t>Btm Depth</t>
+  </si>
+  <si>
+    <t>GRR</t>
+  </si>
+  <si>
+    <t>GRD</t>
+  </si>
+  <si>
+    <t>DTRP, DTRS, HLLD, HLLS</t>
+  </si>
+  <si>
+    <t>DTLF</t>
+  </si>
+  <si>
+    <t>HLLD, HLLS</t>
+  </si>
+  <si>
+    <t>ILD, SFLA</t>
+  </si>
+  <si>
+    <t>start here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1609,12 +1615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K189" sqref="K189"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,23 +1628,16 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1646,34 +1645,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" t="s">
-        <v>241</v>
-      </c>
-      <c r="I2" t="s">
-        <v>242</v>
-      </c>
-      <c r="J2" t="s">
         <v>243</v>
       </c>
-      <c r="K2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1681,15 +1662,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1697,23 +1681,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1721,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1729,47 +1722,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1777,12 +1785,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1913,7 +1924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1921,15 +1932,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1937,7 +1951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1953,7 +1967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1961,7 +1975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1969,7 +1983,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1977,7 +1991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1985,7 +1999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1993,7 +2007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2001,7 +2015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2009,7 +2023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2017,7 +2031,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2025,7 +2039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -2033,7 +2047,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -3065,7 +3079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>174</v>
       </c>
@@ -3073,7 +3087,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>175</v>
       </c>
@@ -3081,7 +3095,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>176</v>
       </c>
@@ -3089,7 +3103,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>177</v>
       </c>
@@ -3097,7 +3111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>178</v>
       </c>
@@ -3105,7 +3119,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>179</v>
       </c>
@@ -3113,7 +3127,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>180</v>
       </c>
@@ -3121,7 +3135,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>181</v>
       </c>
@@ -3129,7 +3143,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>182</v>
       </c>
@@ -3137,7 +3151,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>183</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>184</v>
       </c>
@@ -3153,24 +3167,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>185</v>
       </c>
       <c r="B188" t="s">
         <v>187</v>
       </c>
-      <c r="F188" t="s">
-        <v>247</v>
-      </c>
-      <c r="I188" t="s">
-        <v>246</v>
-      </c>
-      <c r="K188" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>186</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>187</v>
       </c>
@@ -3186,7 +3194,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>188</v>
       </c>
@@ -3194,7 +3202,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>189</v>
       </c>
@@ -3555,9 +3563,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/misc/curve_info_to_QC.xlsx
+++ b/misc/curve_info_to_QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E84CF6-BC84-486F-A512-79FE7AF3268A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0AEBE3-EE2A-4B15-8B0E-38BEA562A888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="254">
   <si>
     <t>WellNo</t>
   </si>
@@ -773,6 +773,15 @@
   </si>
   <si>
     <t>start here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT2, DT1, DT4S, DT4P, DTST, </t>
+  </si>
+  <si>
+    <t>DTSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTCO  </t>
   </si>
 </sst>
 </file>
@@ -1619,8 +1628,8 @@
   <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N116" sqref="N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -2455,7 +2464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -2463,7 +2472,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
@@ -2487,7 +2496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -2511,7 +2520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -2519,7 +2528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
@@ -2527,15 +2536,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
@@ -2543,7 +2555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -2559,7 +2571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
@@ -2575,7 +2587,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
@@ -2583,7 +2595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
@@ -2607,15 +2619,18 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
       <c r="B118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
@@ -2623,7 +2638,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
@@ -2631,7 +2646,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
@@ -2639,7 +2654,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>119</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>120</v>
       </c>
@@ -2655,7 +2670,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>122</v>
       </c>
@@ -2671,7 +2686,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>123</v>
       </c>
@@ -2679,7 +2694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>124</v>
       </c>
@@ -2687,7 +2702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>125</v>
       </c>
@@ -2823,7 +2838,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>142</v>
       </c>
@@ -2831,7 +2846,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>143</v>
       </c>
@@ -2839,7 +2854,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>144</v>
       </c>
@@ -2847,7 +2862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>145</v>
       </c>
@@ -2855,7 +2870,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>146</v>
       </c>
@@ -2863,7 +2878,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>147</v>
       </c>
@@ -2871,7 +2886,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>148</v>
       </c>
@@ -2879,7 +2894,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>149</v>
       </c>
@@ -2887,7 +2902,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>150</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>151</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>152</v>
       </c>
@@ -2911,7 +2926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>153</v>
       </c>
@@ -2919,15 +2934,18 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>154</v>
       </c>
       <c r="B157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>155</v>
       </c>
@@ -2935,7 +2953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>156</v>
       </c>
@@ -2943,7 +2961,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>157</v>
       </c>
@@ -2951,7 +2969,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>158</v>
       </c>
@@ -2959,7 +2977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>159</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>160</v>
       </c>
@@ -2975,7 +2993,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>161</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>162</v>
       </c>
@@ -2991,15 +3009,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>163</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>164</v>
       </c>
@@ -3007,7 +3028,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>165</v>
       </c>
@@ -3015,7 +3036,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>166</v>
       </c>
@@ -3023,7 +3044,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>167</v>
       </c>
@@ -3031,7 +3052,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>168</v>
       </c>
@@ -3039,7 +3060,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>169</v>
       </c>
@@ -3047,7 +3068,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>170</v>
       </c>
@@ -3055,7 +3076,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>171</v>
       </c>
@@ -3063,7 +3084,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>172</v>
       </c>
@@ -3071,7 +3092,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>173</v>
       </c>
@@ -3338,15 +3359,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>206</v>
       </c>
       <c r="B209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>207</v>
       </c>
@@ -3354,7 +3378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>208</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>209</v>
       </c>
@@ -3370,7 +3394,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>210</v>
       </c>
@@ -3378,7 +3402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>211</v>
       </c>
@@ -3386,7 +3410,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>212</v>
       </c>
@@ -3394,7 +3418,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>213</v>
       </c>
@@ -3402,7 +3426,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>214</v>
       </c>
@@ -3410,7 +3434,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>215</v>
       </c>
@@ -3418,7 +3442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>216</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>217</v>
       </c>
@@ -3434,7 +3458,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>218</v>
       </c>
@@ -3442,7 +3466,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>219</v>
       </c>
@@ -3450,7 +3474,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>220</v>
       </c>
@@ -3458,7 +3482,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>221</v>
       </c>

--- a/misc/curve_info_to_QC.xlsx
+++ b/misc/curve_info_to_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0AEBE3-EE2A-4B15-8B0E-38BEA562A888}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DE342C-CE73-4599-B68C-8C73EEBB11AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curve_info_to_QC" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="258">
   <si>
     <t>WellNo</t>
   </si>
@@ -730,9 +730,6 @@
     <t>233-fe8ab5538224_TGS</t>
   </si>
   <si>
-    <t>Curves should be used for below mnemonics</t>
-  </si>
-  <si>
     <t>missing top part data, SPR mistaken as caliper, NPHI seems follow DTSM trend</t>
   </si>
   <si>
@@ -782,6 +779,21 @@
   </si>
   <si>
     <t xml:space="preserve">DTCO  </t>
+  </si>
+  <si>
+    <t>drop_las</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>too deep, depth : 16-22k ft</t>
+  </si>
+  <si>
+    <t>too shallow, 2-3k ft</t>
+  </si>
+  <si>
+    <t>DT, DTM</t>
   </si>
 </sst>
 </file>
@@ -1265,11 +1277,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1625,11 +1634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N116" sqref="N116"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,1948 +1650,1964 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>244</v>
       </c>
-      <c r="D7">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>13</v>
-      </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" t="s">
-        <v>239</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>46</v>
-      </c>
       <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>47</v>
-      </c>
       <c r="B50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>48</v>
-      </c>
       <c r="B51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>49</v>
-      </c>
       <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>50</v>
-      </c>
       <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>51</v>
-      </c>
       <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>52</v>
-      </c>
       <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>53</v>
-      </c>
       <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>54</v>
-      </c>
       <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>55</v>
-      </c>
       <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>56</v>
-      </c>
       <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>57</v>
-      </c>
       <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>58</v>
-      </c>
       <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>59</v>
-      </c>
       <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>60</v>
-      </c>
       <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>61</v>
-      </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>94</v>
-      </c>
       <c r="B97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>95</v>
-      </c>
       <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>96</v>
-      </c>
       <c r="B99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>97</v>
-      </c>
       <c r="B100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>98</v>
-      </c>
       <c r="B101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>99</v>
-      </c>
       <c r="B102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>100</v>
-      </c>
       <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>101</v>
-      </c>
       <c r="B104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>102</v>
-      </c>
       <c r="B105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>103</v>
-      </c>
       <c r="B106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>104</v>
-      </c>
       <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>105</v>
-      </c>
       <c r="B108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>107</v>
       </c>
-      <c r="C108" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>106</v>
-      </c>
       <c r="B109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>107</v>
-      </c>
       <c r="B110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>108</v>
-      </c>
       <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>109</v>
-      </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" t="s">
-        <v>253</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>142</v>
-      </c>
       <c r="B145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>143</v>
-      </c>
       <c r="B146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>144</v>
-      </c>
       <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>145</v>
-      </c>
       <c r="B148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>146</v>
-      </c>
       <c r="B149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>147</v>
-      </c>
       <c r="B150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>148</v>
-      </c>
       <c r="B151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>149</v>
-      </c>
       <c r="B152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>150</v>
-      </c>
       <c r="B153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>151</v>
-      </c>
       <c r="B154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>152</v>
-      </c>
       <c r="B155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>153</v>
-      </c>
       <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>154</v>
-      </c>
       <c r="B157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
         <v>156</v>
       </c>
-      <c r="C157" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>155</v>
-      </c>
       <c r="B158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>156</v>
-      </c>
       <c r="B159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>157</v>
-      </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
-      </c>
-      <c r="C166" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>174</v>
-      </c>
       <c r="B177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>175</v>
-      </c>
       <c r="B178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>176</v>
-      </c>
       <c r="B179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>177</v>
-      </c>
       <c r="B180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>178</v>
-      </c>
       <c r="B181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>179</v>
-      </c>
       <c r="B182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>180</v>
-      </c>
       <c r="B183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>181</v>
-      </c>
       <c r="B184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>182</v>
-      </c>
       <c r="B185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>183</v>
-      </c>
       <c r="B186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>184</v>
-      </c>
       <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="G187" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>185</v>
-      </c>
       <c r="B188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
         <v>187</v>
       </c>
-      <c r="D188" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>186</v>
-      </c>
       <c r="B189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>187</v>
-      </c>
       <c r="B190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>188</v>
-      </c>
       <c r="B191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>189</v>
-      </c>
       <c r="B192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>190</v>
-      </c>
       <c r="B193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>191</v>
-      </c>
       <c r="B194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>192</v>
-      </c>
       <c r="B195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>193</v>
-      </c>
       <c r="B196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>194</v>
-      </c>
       <c r="B197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>195</v>
-      </c>
       <c r="B198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>196</v>
-      </c>
       <c r="B199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>197</v>
-      </c>
       <c r="B200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>198</v>
-      </c>
       <c r="B201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>199</v>
-      </c>
       <c r="B202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>200</v>
-      </c>
       <c r="B203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>201</v>
-      </c>
       <c r="B204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>202</v>
-      </c>
       <c r="B205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>203</v>
-      </c>
       <c r="B206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>204</v>
-      </c>
       <c r="B207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>205</v>
-      </c>
       <c r="B208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>206</v>
-      </c>
       <c r="B209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
         <v>208</v>
       </c>
-      <c r="C209" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>207</v>
-      </c>
       <c r="B210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>208</v>
-      </c>
       <c r="B211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>209</v>
-      </c>
       <c r="B212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>210</v>
-      </c>
       <c r="B213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>211</v>
-      </c>
       <c r="B214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>212</v>
-      </c>
       <c r="B215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>213</v>
-      </c>
       <c r="B216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>214</v>
-      </c>
       <c r="B217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>215</v>
-      </c>
       <c r="B218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>216</v>
-      </c>
       <c r="B219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>217</v>
-      </c>
       <c r="B220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>218</v>
-      </c>
       <c r="B221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>219</v>
-      </c>
       <c r="B222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>220</v>
-      </c>
       <c r="B223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>221</v>
-      </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>233</v>
-      </c>
-      <c r="B236" t="s">
         <v>235</v>
       </c>
     </row>

--- a/misc/curve_info_to_QC.xlsx
+++ b/misc/curve_info_to_QC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DE342C-CE73-4599-B68C-8C73EEBB11AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E160C90D-E534-4062-9673-BB0635C37BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curve_info_to_QC" sheetId="1" r:id="rId1"/>
@@ -787,13 +787,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>too deep, depth : 16-22k ft</t>
-  </si>
-  <si>
     <t>too shallow, 2-3k ft</t>
   </si>
   <si>
     <t>DT, DTM</t>
+  </si>
+  <si>
+    <t>too deep, depth : 16-22k ft, probably lateral, looking at the GR range</t>
   </si>
 </sst>
 </file>
@@ -1637,8 +1637,8 @@
   <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2114,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="G111" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="G147" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3264,7 +3264,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -3280,15 +3280,18 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -3320,7 +3323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -3328,7 +3331,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -3344,7 +3347,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -3368,7 +3371,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -3376,7 +3379,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -3384,7 +3387,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>

--- a/misc/curve_info_to_QC.xlsx
+++ b/misc/curve_info_to_QC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian Liu\Documents\Project\SPEGCS ML Challenge\project-gcs-datathon2021\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7D81B-582D-4CCB-B856-D7D2DEE55F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3671966-2FA1-4178-92CB-1C54A4B537B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="3810" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1164,9 +1164,6 @@
     <t>RXOZ, RT_HRLT</t>
   </si>
   <si>
-    <t>DTLF, DTLN, HLLS, RXOZ</t>
-  </si>
-  <si>
     <t>AT10, AT20, AT30, AT60, GRR</t>
   </si>
   <si>
@@ -1225,6 +1222,9 @@
   </si>
   <si>
     <t>RHOZ, TNPH_LS empty, should be dropped</t>
+  </si>
+  <si>
+    <t>DTLF, DTCO, HLLS, RXOZ</t>
   </si>
 </sst>
 </file>
@@ -2077,8 +2077,8 @@
   <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I142" sqref="I142"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2134,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>254</v>
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>243</v>
@@ -2458,7 +2458,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2469,7 +2469,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2496,7 +2496,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2630,7 +2630,7 @@
         <v>50</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2652,7 +2652,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2690,7 +2690,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>59</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2978,7 +2978,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3025,7 +3025,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3166,7 +3166,7 @@
         <v>99</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3251,7 +3251,7 @@
         <v>107</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3262,7 +3262,7 @@
         <v>108</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3532,7 +3532,7 @@
         <v>132</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,7 +4308,7 @@
         <v>202</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -4559,7 +4559,7 @@
         <v>224</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -4598,7 +4598,7 @@
         <v>12300</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
